--- a/webscraping/email-and-phone-scraper-master/Texas.xlsx
+++ b/webscraping/email-and-phone-scraper-master/Texas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naman/Desktop/WebScrapeWebsitesEmails/final_locations_to_scrap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naman/Desktop/WebScrapeWebsitesEmails/webscraping/email-and-phone-scraper-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D74F270-DD5B-9A4C-8DEE-C2A7808ED70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC9B688-7B88-4C46-9829-CA3C519E607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45860" yWindow="500" windowWidth="22940" windowHeight="26580" xr2:uid="{F8A44B9E-9CAF-704A-8BD9-24C3AFD8E50D}"/>
+    <workbookView xWindow="3620" yWindow="500" windowWidth="38260" windowHeight="26600" xr2:uid="{F8A44B9E-9CAF-704A-8BD9-24C3AFD8E50D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>Emergent Group, LLC</t>
   </si>
@@ -458,18 +458,6 @@
     <t>galleriawireless.com</t>
   </si>
   <si>
-    <t>gemsouthwestllc.com</t>
-  </si>
-  <si>
-    <t>hobi.com</t>
-  </si>
-  <si>
-    <t>http://www.famce.net</t>
-  </si>
-  <si>
-    <t>http://www.mjtechtrade.com</t>
-  </si>
-  <si>
     <t>http://www.mobiltechglobal.com/</t>
   </si>
   <si>
@@ -491,54 +479,21 @@
     <t>itadsolutions.com</t>
   </si>
   <si>
-    <t>r3ewaste.com</t>
-  </si>
-  <si>
-    <t>retirepc.com</t>
-  </si>
-  <si>
-    <t>servermonkey.com</t>
-  </si>
-  <si>
-    <t>ToyoshimaGreentechnology.com</t>
-  </si>
-  <si>
     <t>txrecovery.com</t>
   </si>
   <si>
-    <t>varesourcing.com</t>
-  </si>
-  <si>
     <t>vhtechworks.com</t>
   </si>
   <si>
     <t>wirelessdataoutlet.com</t>
   </si>
   <si>
-    <t>wisetek.net</t>
-  </si>
-  <si>
-    <t>www.altechco.com</t>
-  </si>
-  <si>
-    <t>www.altr-binc.com</t>
-  </si>
-  <si>
-    <t>www.angelcellular.com</t>
-  </si>
-  <si>
     <t>www.argusx.com</t>
   </si>
   <si>
-    <t>www.ATRecycle.com</t>
-  </si>
-  <si>
     <t>www.atxglobaltrading.com</t>
   </si>
   <si>
-    <t>WWW.CELLTRADENY.COM</t>
-  </si>
-  <si>
     <t>www.clarionrecyclingllc.com</t>
   </si>
   <si>
@@ -548,103 +503,151 @@
     <t>www.ecycletek.com</t>
   </si>
   <si>
-    <t>www.electronicrecyclers.com</t>
-  </si>
-  <si>
-    <t>www.elitecell.com</t>
-  </si>
-  <si>
     <t>www.ereplacements.com</t>
   </si>
   <si>
     <t>www.estaso.com</t>
   </si>
   <si>
-    <t>www.gotrg.com</t>
-  </si>
-  <si>
-    <t>www.hthcomm.com</t>
-  </si>
-  <si>
-    <t>www.ispelectronics.com</t>
-  </si>
-  <si>
-    <t>www.ITRGsecure.com</t>
-  </si>
-  <si>
-    <t>www.kwirelesswholesale.com</t>
-  </si>
-  <si>
-    <t>www.lifespantechnology.com</t>
-  </si>
-  <si>
     <t>www.mannapovllc.com</t>
   </si>
   <si>
-    <t>www.mobilesquare.com</t>
-  </si>
-  <si>
-    <t>www.norris1.com</t>
-  </si>
-  <si>
     <t>www.pulserecycling.us</t>
   </si>
   <si>
-    <t>www.R3Recycles.com</t>
-  </si>
-  <si>
-    <t>www.rakicomp.com</t>
-  </si>
-  <si>
-    <t>www.re-lcdinc.com</t>
-  </si>
-  <si>
-    <t>www.re-teckusa.com</t>
-  </si>
-  <si>
-    <t>www.recyclingsurplus.com</t>
-  </si>
-  <si>
-    <t>www.regencytechnologies.com</t>
-  </si>
-  <si>
-    <t>www.rexiresale.com</t>
-  </si>
-  <si>
-    <t>www.sachinsystems.com</t>
-  </si>
-  <si>
-    <t>www.skyvineitad.com</t>
-  </si>
-  <si>
-    <t>www.sm-techs.com</t>
-  </si>
-  <si>
-    <t>www.supremewirelessdistribution.com</t>
-  </si>
-  <si>
-    <t>www.techwayservices.com</t>
-  </si>
-  <si>
-    <t>WWW.THEMOBILEMASTERS.COM</t>
-  </si>
-  <si>
-    <t>www.trillion-trade.com</t>
-  </si>
-  <si>
-    <t>www.unicor.gov</t>
-  </si>
-  <si>
-    <t>www.URTsolutions.com</t>
-  </si>
-  <si>
     <t>www.wirelesswavestx.com</t>
   </si>
   <si>
     <t>www.wirelessway.net</t>
   </si>
   <si>
-    <t>www.wm.com</t>
+    <t>https://www.fortunegroup.net/</t>
+  </si>
+  <si>
+    <t>https://gemsouthwestllc.com/</t>
+  </si>
+  <si>
+    <t>https://hobi.com/</t>
+  </si>
+  <si>
+    <t>https://www.famce.net/</t>
+  </si>
+  <si>
+    <t>http://www.mjtechtrade.com/</t>
+  </si>
+  <si>
+    <t>https://www.r3ewaste.com/</t>
+  </si>
+  <si>
+    <t>https://www.retirepc.com/</t>
+  </si>
+  <si>
+    <t>https://www.servermonkey.com/</t>
+  </si>
+  <si>
+    <t>https://www.toyoshimagreentechnology.com/</t>
+  </si>
+  <si>
+    <t>https://www.itadvets.com/</t>
+  </si>
+  <si>
+    <t>https://wisetek.net/</t>
+  </si>
+  <si>
+    <t>https://www.altechco.com/</t>
+  </si>
+  <si>
+    <t>http://www.altr-binc.com/</t>
+  </si>
+  <si>
+    <t>https://www.angelcellular.com/</t>
+  </si>
+  <si>
+    <t>https://www.atrecycle.com/</t>
+  </si>
+  <si>
+    <t>https://www.celltradeny.com/</t>
+  </si>
+  <si>
+    <t>https://eridirect.com/</t>
+  </si>
+  <si>
+    <t>https://elitecell.com/</t>
+  </si>
+  <si>
+    <t>https://www.gotrg.com/</t>
+  </si>
+  <si>
+    <t>https://hthcomm.com/</t>
+  </si>
+  <si>
+    <t>https://ispelectronics.com/</t>
+  </si>
+  <si>
+    <t>https://itrgsecure.com/</t>
+  </si>
+  <si>
+    <t>https://www.kwirelesswholesale.com/</t>
+  </si>
+  <si>
+    <t>https://www.lifespantechnology.com/</t>
+  </si>
+  <si>
+    <t>https://www.mobilesquare.com/</t>
+  </si>
+  <si>
+    <t>https://www.norris1.com/</t>
+  </si>
+  <si>
+    <t>https://www.r3recycles.com/</t>
+  </si>
+  <si>
+    <t>https://www.rakicomp.com/</t>
+  </si>
+  <si>
+    <t>https://re-lcdinc.com/</t>
+  </si>
+  <si>
+    <t>https://www.re-teck.com/</t>
+  </si>
+  <si>
+    <t>https://recyclingsurplus.com/</t>
+  </si>
+  <si>
+    <t>https://regencytechnologies.com/</t>
+  </si>
+  <si>
+    <t>https://www.rexiresale.com/</t>
+  </si>
+  <si>
+    <t>https://www.sachinsystems.com/</t>
+  </si>
+  <si>
+    <t>https://skyvineitad.com/</t>
+  </si>
+  <si>
+    <t>https://sm-techs.com/</t>
+  </si>
+  <si>
+    <t>https://supremewirelessdistribution.com/</t>
+  </si>
+  <si>
+    <t>https://techwayservices.com/</t>
+  </si>
+  <si>
+    <t>https://themobilemasters.com/</t>
+  </si>
+  <si>
+    <t>https://trillion-trade.com/</t>
+  </si>
+  <si>
+    <t>https://www.unicor.gov/</t>
+  </si>
+  <si>
+    <t>https://urtsolutions.com/</t>
+  </si>
+  <si>
+    <t>https://www.wm.com/</t>
   </si>
 </sst>
 </file>
@@ -1025,15 +1028,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67565781-FD11-2047-AA3F-2F1A9FD2CC02}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
     <col min="2" max="2" width="63.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1069,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1124,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1146,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,7 +1160,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1168,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1190,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,7 +1204,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1212,7 +1215,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1223,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,7 +1237,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,7 +1248,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,7 +1292,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,7 +1303,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,7 +1325,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,7 +1336,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1344,7 +1347,7 @@
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,7 +1358,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1366,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1377,7 +1380,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1388,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1399,7 +1402,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1410,7 +1413,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1421,7 +1424,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,7 +1435,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1443,7 +1446,7 @@
         <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,7 +1457,7 @@
         <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1465,7 +1468,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1476,7 +1479,7 @@
         <v>76</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1487,7 +1490,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1498,7 +1501,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,7 +1512,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,7 +1523,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1531,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,7 +1545,7 @@
         <v>88</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1553,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,7 +1567,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1575,7 +1578,7 @@
         <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1586,7 +1589,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,7 +1600,7 @@
         <v>98</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,7 +1611,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,7 +1622,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1630,7 +1633,7 @@
         <v>104</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,7 +1644,7 @@
         <v>106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,7 +1655,7 @@
         <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1663,7 +1666,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1674,7 +1677,7 @@
         <v>112</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1685,7 +1688,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,7 +1699,7 @@
         <v>116</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,7 +1710,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,7 +1721,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1729,7 +1732,7 @@
         <v>122</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1740,7 +1743,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1751,7 +1754,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1762,7 +1765,7 @@
         <v>128</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1773,7 +1776,7 @@
         <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1784,7 +1787,7 @@
         <v>132</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,72 +1853,31 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://emergentdeals.com/" xr:uid="{91198E5E-EA5B-C04E-9CA1-F699F6D61562}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://fortunegroup.net/" xr:uid="{CDA4B95A-BCA9-F448-A293-A5DFB5A121C2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CDA4B95A-BCA9-F448-A293-A5DFB5A121C2}"/>
     <hyperlink ref="C4" r:id="rId3" display="http://fortunegroup.net/" xr:uid="{C7E5CD1D-3125-2444-B8AD-06B0A6E1F24D}"/>
     <hyperlink ref="C5" r:id="rId4" display="http://galleriawireless.com/" xr:uid="{68E90F74-B6F0-9D4C-AD14-D449F1C4A355}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://gemsouthwestllc.com/" xr:uid="{0168BDED-0EE9-0542-953A-984C7872C23C}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://hobi.com/" xr:uid="{F7F9AA5C-BFAE-F74F-BBB3-C34B17327F4D}"/>
-    <hyperlink ref="C8" r:id="rId7" display="http://www.famce.net/" xr:uid="{8589C8E0-795A-7646-89E4-9F8A6C6BA1CB}"/>
-    <hyperlink ref="C9" r:id="rId8" display="http://www.mjtechtrade.com/" xr:uid="{76D7EAE7-5BE0-C04A-BEA1-C890642EF90E}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{186270F7-601D-4143-803B-C2E13E37A65D}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{0FBD6E85-4DBA-A74A-9238-C94998FE85E9}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{67D608E6-4024-164F-ABEA-1AC0812A19A9}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{44471684-4171-3045-9856-185B566B4ECF}"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://www.sproutup.com/" xr:uid="{4F65912C-BB31-BE45-984B-7DAA03521838}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{548CBC1F-60C3-4D4D-B028-BF134B157BA4}"/>
-    <hyperlink ref="C16" r:id="rId15" display="http://itadsolutions.com/" xr:uid="{DC83747A-D7E8-4845-B7BA-F31DDDD6E84F}"/>
-    <hyperlink ref="C17" r:id="rId16" display="http://r3ewaste.com/" xr:uid="{2C9183E9-3028-8C49-B3EE-EA81C5517A22}"/>
-    <hyperlink ref="C18" r:id="rId17" display="http://retirepc.com/" xr:uid="{3A2C9C9B-207C-8B46-AF36-266E9A9CEB73}"/>
-    <hyperlink ref="C19" r:id="rId18" display="http://servermonkey.com/" xr:uid="{591C2191-177A-6F40-9B07-CC283E57F5DC}"/>
-    <hyperlink ref="C20" r:id="rId19" display="http://toyoshimagreentechnology.com/" xr:uid="{00AE3851-F085-2D4C-A4D3-737FFE9621E7}"/>
-    <hyperlink ref="C21" r:id="rId20" display="http://txrecovery.com/" xr:uid="{68D6715B-28E4-D140-8FBB-E370AE2579CE}"/>
-    <hyperlink ref="C22" r:id="rId21" display="http://varesourcing.com/" xr:uid="{EA132A93-1F43-444E-BEE8-D078488CEE1A}"/>
-    <hyperlink ref="C23" r:id="rId22" display="http://vhtechworks.com/" xr:uid="{57F08E1F-44EB-B848-834B-55914C9DD685}"/>
-    <hyperlink ref="C24" r:id="rId23" display="http://wirelessdataoutlet.com/" xr:uid="{A028E16C-D44E-4446-8902-ADEB697165FE}"/>
-    <hyperlink ref="C25" r:id="rId24" display="http://wisetek.net/" xr:uid="{9169E630-9E1F-3F4A-8F40-1AB9A91F1012}"/>
-    <hyperlink ref="C26" r:id="rId25" display="http://www.altechco.com/" xr:uid="{B984875F-4AE4-6B42-A259-FB03B62119D4}"/>
-    <hyperlink ref="C27" r:id="rId26" display="http://www.altr-binc.com/" xr:uid="{FC265D7C-3793-B347-9D92-F7053C20F2F9}"/>
-    <hyperlink ref="C28" r:id="rId27" display="http://www.angelcellular.com/" xr:uid="{DB4A2995-957A-504B-BA5F-556CABAEF023}"/>
-    <hyperlink ref="C29" r:id="rId28" display="http://www.argusx.com/" xr:uid="{E17E37BA-7747-D141-B19B-1DCE928E908B}"/>
-    <hyperlink ref="C30" r:id="rId29" display="http://www.atrecycle.com/" xr:uid="{63FFF4E1-1CC7-7940-819B-ECF3748F17EE}"/>
-    <hyperlink ref="C31" r:id="rId30" display="http://www.atxglobaltrading.com/" xr:uid="{049AE8E4-49B1-9146-A994-3F5BA812C8EF}"/>
-    <hyperlink ref="C32" r:id="rId31" display="http://www.celltradeny.com/" xr:uid="{8BDC68CE-B867-6445-9BAE-C9C26F9E3643}"/>
-    <hyperlink ref="C33" r:id="rId32" display="http://www.clarionrecyclingllc.com/" xr:uid="{AC0FBAAA-A8CE-A244-B11A-557B3237E201}"/>
-    <hyperlink ref="C34" r:id="rId33" display="http://www.echoenvironmental.com/" xr:uid="{A1CF4855-10B0-7942-86E2-C09BC19579CD}"/>
-    <hyperlink ref="C35" r:id="rId34" display="http://www.ecycletek.com/" xr:uid="{9E7D8427-3ABB-5943-9F6C-7DCCA6A16BCF}"/>
-    <hyperlink ref="C36" r:id="rId35" display="http://www.electronicrecyclers.com/" xr:uid="{39189AF2-5496-514F-8E99-7E9EE41A7230}"/>
-    <hyperlink ref="C37" r:id="rId36" display="http://www.elitecell.com/" xr:uid="{BCC30D15-6A49-7A4D-A9E4-7D8C7DAA91B5}"/>
-    <hyperlink ref="C38" r:id="rId37" display="http://www.ereplacements.com/" xr:uid="{93A9D7D1-C7A7-9641-B487-CDF2624B7965}"/>
-    <hyperlink ref="C39" r:id="rId38" display="http://www.estaso.com/" xr:uid="{240BF17A-9BDF-8640-8B39-9B5F872F9176}"/>
-    <hyperlink ref="C40" r:id="rId39" display="http://www.gotrg.com/" xr:uid="{6EC1D1C4-BFA3-B44B-9C9D-C9FF11515C8B}"/>
-    <hyperlink ref="C41" r:id="rId40" display="http://www.hthcomm.com/" xr:uid="{DBEC5E18-96BC-8641-B43F-FA14561F8702}"/>
-    <hyperlink ref="C42" r:id="rId41" display="http://www.ispelectronics.com/" xr:uid="{39BD6703-9867-BB44-AD70-5882CEEADBEA}"/>
-    <hyperlink ref="C43" r:id="rId42" display="http://www.itrgsecure.com/" xr:uid="{FFBCD8E2-BC75-8349-BC83-35062D134CF3}"/>
-    <hyperlink ref="C44" r:id="rId43" display="http://www.kwirelesswholesale.com/" xr:uid="{09BEDCAB-7ECB-4B44-86D7-B69FB095DFAD}"/>
-    <hyperlink ref="C45" r:id="rId44" display="http://www.lifespantechnology.com/" xr:uid="{52CDC243-D86C-994A-8C05-49CFF3B6E7AD}"/>
-    <hyperlink ref="C46" r:id="rId45" display="http://www.mannapovllc.com/" xr:uid="{90EF756A-9293-5841-A006-986686C2BAEE}"/>
-    <hyperlink ref="C47" r:id="rId46" display="http://www.mobilesquare.com/" xr:uid="{18DFD524-DE41-6748-8EBD-34D99DF7C654}"/>
-    <hyperlink ref="C48" r:id="rId47" display="http://www.norris1.com/" xr:uid="{582CA69C-B02E-644D-AAD9-EDF63E96C678}"/>
-    <hyperlink ref="C49" r:id="rId48" display="http://www.pulserecycling.us/" xr:uid="{B5F7D0A4-7FF7-404C-852B-FC05B92E4BB8}"/>
-    <hyperlink ref="C50" r:id="rId49" display="http://www.r3recycles.com/" xr:uid="{C56A8C7D-1342-8F42-A5AA-AF7985B21D1B}"/>
-    <hyperlink ref="C51" r:id="rId50" display="http://www.rakicomp.com/" xr:uid="{93974F73-7E96-6440-9996-A7A4F112929E}"/>
-    <hyperlink ref="C52" r:id="rId51" display="http://www.re-lcdinc.com/" xr:uid="{F77F3399-0D6D-0749-B8F9-F952A00C76E6}"/>
-    <hyperlink ref="C53" r:id="rId52" display="http://www.re-teckusa.com/" xr:uid="{288F3817-2310-E24B-B13B-402CED9DBEA2}"/>
-    <hyperlink ref="C54" r:id="rId53" display="http://www.recyclingsurplus.com/" xr:uid="{8ED93922-4113-8E4C-9486-9D63277E987E}"/>
-    <hyperlink ref="C55" r:id="rId54" display="http://www.regencytechnologies.com/" xr:uid="{A41FD978-0D11-5B40-89AB-DF5198524EAD}"/>
-    <hyperlink ref="C56" r:id="rId55" display="http://www.rexiresale.com/" xr:uid="{450882BA-8E01-034F-BC3F-881F74E5A964}"/>
-    <hyperlink ref="C57" r:id="rId56" display="http://www.sachinsystems.com/" xr:uid="{84B0FAA0-D3A3-CA4C-812A-3929428AEBDA}"/>
-    <hyperlink ref="C58" r:id="rId57" display="http://www.skyvineitad.com/" xr:uid="{0063DAE7-99C0-AA4B-8447-4B766E8B9667}"/>
-    <hyperlink ref="C59" r:id="rId58" display="http://www.sm-techs.com/" xr:uid="{31C21B2A-98A1-A849-ABF7-9D945C3A8D2A}"/>
-    <hyperlink ref="C60" r:id="rId59" display="http://www.supremewirelessdistribution.com/" xr:uid="{6203D33B-4C93-F945-9874-39E24A45B98A}"/>
-    <hyperlink ref="C61" r:id="rId60" display="http://www.techwayservices.com/" xr:uid="{AFE7A349-C086-F544-87B0-7C802FF1FF86}"/>
-    <hyperlink ref="C62" r:id="rId61" display="http://www.themobilemasters.com/" xr:uid="{07E7207F-4DA8-944E-86AF-1F626BE8D1ED}"/>
-    <hyperlink ref="C63" r:id="rId62" display="http://www.trillion-trade.com/" xr:uid="{546A75AB-D3F8-DB4B-A92E-6DB77587C4B6}"/>
-    <hyperlink ref="C64" r:id="rId63" display="http://www.unicor.gov/" xr:uid="{F6EAB38A-08DA-584D-98D6-D430A3B08415}"/>
-    <hyperlink ref="C65" r:id="rId64" display="http://www.urtsolutions.com/" xr:uid="{C393B112-4AF2-8E43-AA9C-8019A50DF2A2}"/>
-    <hyperlink ref="C66" r:id="rId65" display="http://www.wirelesswavestx.com/" xr:uid="{4FCEF6D2-F0D5-1C44-BC2D-862F11F0DE09}"/>
-    <hyperlink ref="C67" r:id="rId66" display="http://www.wirelessway.net/" xr:uid="{B7FCA8DD-7CE0-FB44-81F2-BA87F68E376B}"/>
-    <hyperlink ref="C68" r:id="rId67" display="http://www.wm.com/" xr:uid="{3333B1D1-85A0-EB4B-9230-9279CA51F46E}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{0FBD6E85-4DBA-A74A-9238-C94998FE85E9}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{67D608E6-4024-164F-ABEA-1AC0812A19A9}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{44471684-4171-3045-9856-185B566B4ECF}"/>
+    <hyperlink ref="C14" r:id="rId8" display="https://www.sproutup.com/" xr:uid="{4F65912C-BB31-BE45-984B-7DAA03521838}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{548CBC1F-60C3-4D4D-B028-BF134B157BA4}"/>
+    <hyperlink ref="C16" r:id="rId10" display="http://itadsolutions.com/" xr:uid="{DC83747A-D7E8-4845-B7BA-F31DDDD6E84F}"/>
+    <hyperlink ref="C21" r:id="rId11" display="http://txrecovery.com/" xr:uid="{68D6715B-28E4-D140-8FBB-E370AE2579CE}"/>
+    <hyperlink ref="C23" r:id="rId12" display="http://vhtechworks.com/" xr:uid="{57F08E1F-44EB-B848-834B-55914C9DD685}"/>
+    <hyperlink ref="C24" r:id="rId13" display="http://wirelessdataoutlet.com/" xr:uid="{A028E16C-D44E-4446-8902-ADEB697165FE}"/>
+    <hyperlink ref="C29" r:id="rId14" display="http://www.argusx.com/" xr:uid="{E17E37BA-7747-D141-B19B-1DCE928E908B}"/>
+    <hyperlink ref="C31" r:id="rId15" display="http://www.atxglobaltrading.com/" xr:uid="{049AE8E4-49B1-9146-A994-3F5BA812C8EF}"/>
+    <hyperlink ref="C33" r:id="rId16" display="http://www.clarionrecyclingllc.com/" xr:uid="{AC0FBAAA-A8CE-A244-B11A-557B3237E201}"/>
+    <hyperlink ref="C34" r:id="rId17" display="http://www.echoenvironmental.com/" xr:uid="{A1CF4855-10B0-7942-86E2-C09BC19579CD}"/>
+    <hyperlink ref="C35" r:id="rId18" display="http://www.ecycletek.com/" xr:uid="{9E7D8427-3ABB-5943-9F6C-7DCCA6A16BCF}"/>
+    <hyperlink ref="C37" r:id="rId19" xr:uid="{BCC30D15-6A49-7A4D-A9E4-7D8C7DAA91B5}"/>
+    <hyperlink ref="C38" r:id="rId20" display="http://www.ereplacements.com/" xr:uid="{93A9D7D1-C7A7-9641-B487-CDF2624B7965}"/>
+    <hyperlink ref="C39" r:id="rId21" display="http://www.estaso.com/" xr:uid="{240BF17A-9BDF-8640-8B39-9B5F872F9176}"/>
+    <hyperlink ref="C46" r:id="rId22" display="http://www.mannapovllc.com/" xr:uid="{90EF756A-9293-5841-A006-986686C2BAEE}"/>
+    <hyperlink ref="C49" r:id="rId23" display="http://www.pulserecycling.us/" xr:uid="{B5F7D0A4-7FF7-404C-852B-FC05B92E4BB8}"/>
+    <hyperlink ref="C64" r:id="rId24" xr:uid="{F6EAB38A-08DA-584D-98D6-D430A3B08415}"/>
+    <hyperlink ref="C66" r:id="rId25" display="http://www.wirelesswavestx.com/" xr:uid="{4FCEF6D2-F0D5-1C44-BC2D-862F11F0DE09}"/>
+    <hyperlink ref="C67" r:id="rId26" display="http://www.wirelessway.net/" xr:uid="{B7FCA8DD-7CE0-FB44-81F2-BA87F68E376B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
